--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/248a30f6b02344f5/Projects/TopTal_Framework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padne_000\OneDrive\Projects\TopTal_Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -45,13 +45,6 @@
   </si>
   <si>
     <t>ttc_1</t>
-  </si>
-  <si>
-    <t>Check that New Job wizard (Basic Info step) is started when clicking on Add New Job button_x000D_
-_x000D_
-1. Go to given Env url_x000D_
-2. Login with given user name and password_x000D_
-3. Click on Add New Job button in top menu.</t>
   </si>
   <si>
     <t>1. The Home page is loaded_x000D_
@@ -60,18 +53,6 @@
   </si>
   <si>
     <t>ttc_2</t>
-  </si>
-  <si>
-    <t>Check that [New Job] wizard can be canceled._x000D_
-_x000D_
-Prerequisites: Given user is already logged in._x000D_
-_x000D_
-1. Click on Add New Job button in top menu._x000D_
-2. Click on Cancel button.</t>
-  </si>
-  <si>
-    <t>1. The Add New Job wizard (Basic Info step) is started._x000D_
-2. The Home dashboard is loaded.</t>
   </si>
   <si>
     <t>ttc_3</t>
@@ -108,61 +89,6 @@
 3. The next step of wizard is loaded (Confirm).</t>
   </si>
   <si>
-    <t>Check that [New Job wizard - Basic] Info does verification of required fields well_x000D_
-_x000D_
-Prerequisites: Given user is already logged in._x000D_
-_x000D_
-1. Click on Add New Job button in top menu._x000D_
-2. Click on Next button._x000D_
-3. Provide valid data in all fields. Check that error messages are disappeared._x000D_
-4. Click Next button</t>
-  </si>
-  <si>
-    <t>Check that [New Job wizard - Details] does verification of required fields well_x000D_
-_x000D_
-Prerequisites: Given user is already logged in. The New Job wizard - Details is already started._x000D_
-_x000D_
-1. Remove English spoken language. Click on Next button._x000D_
-2. Provide invalid date and invalid spoken language. Click on Next button._x000D_
-3. Provide valid data in all fields. Check that error messages are disappeared._x000D_
-4. Click Next button</t>
-  </si>
-  <si>
-    <t>Check that removed spoken language can be selected once again on [New Job wizard - Details]_x000D_
-_x000D_
-Prerequisites: Given user is already logged in. The New Job wizard - Details is already started._x000D_
-_x000D_
-1. Remove English spoken language. _x000D_
-2. Enter English and select English Language back_x000D_
-3. Click Next button</t>
-  </si>
-  <si>
-    <t>Check that Uncategorized skill is added to the Misc category on [New Job wizard - Required Skills] _x000D_
-_x000D_
-Prerequisites: Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
-_x000D_
-1. Provide random skills data in field._x000D_
-2. Hit Enter Key. Check that skills is added to the Misk Category.</t>
-  </si>
-  <si>
-    <t>Check that [New Job wizard - Required Skills] does verification of required fields well_x000D_
-_x000D_
-Prerequisites: Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
-_x000D_
-1. Click on Next button._x000D_
-2. Provide valid data in field. Check that error messages are disappeared._x000D_
-3. Click Next button</t>
-  </si>
-  <si>
-    <t>Check that Uncategorized skill is added to the Misc category on [New Job wizard - Required Skills] _x000D_
-_x000D_
-Prerequisites: Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
-_x000D_
-1. Provide random skills data in field._x000D_
-2. Click Next button.
-3. Click Back button.</t>
-  </si>
-  <si>
     <t>1. The skill is entered.
 2. The next step of wizard is loaded (Confirm).
 3. The previous step of wizard is loaded (Required Skills). The entered skill is added under correct category.</t>
@@ -198,112 +124,1092 @@
     <t>ttc_10</t>
   </si>
   <si>
-    <t>Check that old dates are disabled in calendar popup [New Job wizard - Details]_x000D_
-_x000D_
-Prerequisites: Given user is already logged in. The New Job wizard - Details is already started._x000D_
+    <t>ttc_11</t>
+  </si>
+  <si>
+    <t>ttc_12</t>
+  </si>
+  <si>
+    <t>1. The Add New Job wizard (Basic Info step) is started._x000D_
+2. Data is provide for each step. User is presented with Confirm page
+3. User is moved one step backward.
+4. Data is updated on Required Skills step. The Confirm step is loaded.
+5. The job is created with updated values.</t>
+  </si>
+  <si>
+    <t>ttc_13</t>
+  </si>
+  <si>
+    <t>1. The Calendar popup is shown
+2. All days before current day are greyed out
+3. All days after current day are enabled (including current date)</t>
+  </si>
+  <si>
+    <t>1. Skills are entered.
+2. The Expert level is selected.
+3. The Strong level is selected.
+4. The next step of wizard is loaded (Confirm).</t>
+  </si>
+  <si>
+    <t>1. The Add New Job wizard (Basic Info step) is started._x000D_
+2. Data is provide for each step. User is presented with Confirm page
+3. User is able to move back up to the first step. Data is not erased.
+4. User is able to move forward up to the Confirm page. Data is not erased.
+5. The job is created.</t>
+  </si>
+  <si>
+    <t>ttc_14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that Uncategorized skill is added to the Misc category when navigating to next step on [New Job wizard - Required Skills] _x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_x000D_
+Prerequisites:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
+_x000D_
+1. Provide random skills data in field._x000D_
+2. Click Next button.
+3. Click Back button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that [New Job wizard - Required Skills] does verification of required fields well_x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_x000D_
+Prerequisites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
+_x000D_
+1. Click on Next button._x000D_
+2. Provide valid data in field. Check that error messages are disappeared._x000D_
+3. Click Next button</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The skill name is entered, a list is expanded with suggestions.
+2. The skill is selected. The list is gone.
+3. The skill is placed under correct category.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that removed skills can be added back on [New Job wizard - Required Skills]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prerequisites: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
+_x000D_
+1. Enter any skill name.
+2. Select correct skill name from expanded list
+3. Remove the just added skill
+4. Try to back add to the list the just removed skill.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. The skill name is entered, a list is expanded with suggestions.
+2. The skill is selected. The list is gone.
+3. The just added skill name is removed.
+4. The early removed skill can be added back to the list.</t>
+  </si>
+  <si>
+    <t>1. The skill name is entered, a list is expanded with suggestions.
+2. The skill is selected. The list is gone.
+3. The just added skill name is removed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that added skills can be removed on [New Job wizard - Required Skills]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prerequisites: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
+_x000D_
+1. Enter any skill name.
+2. Select correct skill name from expanded list
+3. Click X button for just added skill</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that predefined skills are placed under correct category skill on [New Job wizard - Required Skills]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prerequisites: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
+_x000D_
+1. Enter categorized skill name.
+2. Select correct skill name from expanded list
+3. Check if skill is added to correct category.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please use help tips from page.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. The Add New Job wizard (Basic Info step) is started._x000D_
+2. User completes each wizard's step and selects all set of available data.
+3. The last step is confirmed. The job is created.</t>
+  </si>
+  <si>
+    <t>1. The Calendar popup is shown
+2. The date is selected.
+3. The current selected date is highlighted in the popup.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that New Job wizard (Basic Info step) is started when clicking on Add New Job button_x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+1. Go to given Env url_x000D_
+2. Login with given user name and password_x000D_
+3. Click on Add New Job button in top menu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that [New Job] wizard can be canceled._x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prerequisites:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Given user is already logged in._x000D_
+_x000D_
+1. Click on Add New Job button in top menu._x000D_
+2. Click on Cancel button.
+3. Repeat step 1-2 for following wizard's steps: Details, Required Skills and Confirm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that [New Job wizard - Basic] Info does verification of required fields well_x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_x000D_
+Prerequisites: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given user is already logged in._x000D_
+_x000D_
+1. Click on Add New Job button in top menu._x000D_
+2. Click on Next button._x000D_
+3. Provide valid data in all fields. Check that error messages are disappeared._x000D_
+4. Click Next button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that [New Job wizard - Details] does verification of required fields well_x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prerequisites:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Given user is already logged in. The New Job wizard - Details is already started._x000D_
+_x000D_
+1. Remove English spoken language. Click on Next button._x000D_
+2. Provide invalid date and invalid spoken language. Click on Next button._x000D_
+3. Provide valid data in all fields. Check that error messages are disappeared._x000D_
+4. Click Next button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that removed spoken language can be selected once again on [New Job wizard - Details]_x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prerequisites:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Given user is already logged in. The New Job wizard - Details is already started._x000D_
+_x000D_
+1. Remove English spoken language. _x000D_
+2. Enter English and select English Language back_x000D_
+3. Click Next button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that spoken languages can be removed on [New Job wizard - Details]_x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prerequisites:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Given user is already logged in. The New Job wizard - Details is already started._x000D_
+_x000D_
+1. Enter any spoken language language. _x000D_
+2. Remove just entered language</t>
+    </r>
+  </si>
+  <si>
+    <t>1. The language is added
+2. The language is removed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that old dates are disabled in calendar popup [New Job wizard - Details]_x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prerequisites:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Given user is already logged in. The New Job wizard - Details is already started._x000D_
 _x000D_
 1. Focus Date field _x000D_
 2. Check that all old dates are greyed out in the calendar.
 3. Check that all new dates are enabled in the calendar.</t>
-  </si>
-  <si>
-    <t>ttc_11</t>
-  </si>
-  <si>
-    <t>ttc_12</t>
-  </si>
-  <si>
-    <t>Check that user can navigate between steps of  [New Job] wizard
-_x000D_
-Prerequisites: Given user is already logged in._x000D_
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that current selected date is highlighted in calendar popup [New Job wizard - Details]_x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prerequisites:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Given user is already logged in. The New Job wizard - Details is already started._x000D_
+_x000D_
+1. Focus Date field _x000D_
+2. Select any available date.
+3. Check if current selected date is highlighted in the Calendar popup.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that Uncategorized skill is added to the Misc category when hitting Enter key on [New Job wizard - Required Skills] _x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prerequisites:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
+_x000D_
+1. Provide random skills data in field._x000D_
+2. Hit Enter Key. Check that skills is added to the Misk Category.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that level of skills can be selected on [New Job wizard - Required Skills] _x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_x000D_
+Prerequisites: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
+_x000D_
+1. Provide valid 3 skills.
+2. Select Expert for first added skill
+3. Select Strong for second added skill
+4. Click Next button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that [New Job wizard - Confirm] does verification of required fields well_x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prerequisites:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
+_x000D_
+1. Click on Next button._x000D_
+2. Select first confirm. Check that error messages is disappeared._x000D_
+3. Click Next button
+4. Select all confirm and click Next button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that user can navigate between steps of  [New Job] wizard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prerequisites: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given user is already logged in._x000D_
 _x000D_
 1. Click on Add New Job button in top menu._x000D_
 2. Complete New Job wizard up to step 4 (Confirm)
 3. Click Back button up to 1 step (Basic Info).
 4. Click Next button on each step up to step 4 (Confirm)
 5. Confirm all checkboxes and click Next.</t>
-  </si>
-  <si>
-    <t>1. The Add New Job wizard (Basic Info step) is started._x000D_
-2. Data is provide for each step. User is presented with Confirm page
-3. User is moved one step backward.
-4. Data is updated on Required Skills step. The Confirm step is loaded.
-5. The job is created with updated values.</t>
-  </si>
-  <si>
-    <t>ttc_13</t>
-  </si>
-  <si>
-    <t>Check that user can change data in previous steps during of [New Job] wizard
-_x000D_
-Prerequisites: Given user is already logged in._x000D_
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that user can change data in previous steps during of [New Job] wizard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prerequisites:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Given user is already logged in._x000D_
 _x000D_
 1. Click on Add New Job button in top menu._x000D_
 2. Complete New Job wizard up to step 4 (Confirm)
 3. Click Back button up to 3 step (Skills).
 4. Do some changes on the page. Click Next
 5. Confirm all checkboxes and click Next.</t>
-  </si>
-  <si>
-    <t>1. The Calendar popup is shown
-2. All days before current day are greyed out
-3. All days after current day are enabled (including current date)</t>
-  </si>
-  <si>
-    <t>Check that level of skills can be selected on [New Job wizard - Required Skills] _x000D_
-_x000D_
-Prerequisites: Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
-_x000D_
-1. Provide valid 3 skills.
-2. Select Expert for first added skill
-3. Select Strong for second added skill
-4. Click Next button</t>
-  </si>
-  <si>
-    <t>1. Skills are entered.
-2. The Expert level is selected.
-3. The Strong level is selected.
-4. The next step of wizard is loaded (Confirm).</t>
-  </si>
-  <si>
-    <t>Check that [New Job wizard - Confirm] does verification of required fields well_x000D_
-_x000D_
-Prerequisites: Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
-_x000D_
-1. Click on Next button._x000D_
-2. Select first confirm. Check that error messages is disappeared._x000D_
-3. Click Next button
-4. Select all confirm and click Next button.</t>
-  </si>
-  <si>
-    <t>1. The Add New Job wizard (Basic Info step) is started._x000D_
-2. Data is provide for each step. User is presented with Confirm page
-3. User is able to move back up to the first step. Data is not erased.
-4. User is able to move forward up to the Confirm page. Data is not erased.
-5. The job is created.</t>
-  </si>
-  <si>
-    <t>Check that user can create a job will all set of data.
-Prerequisites: Given user is already logged in._x000D_
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that user can create a job will different set of data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prerequisites: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given user is already logged in._x000D_
 _x000D_
 1. Click on Add New Job button in top menu._x000D_
 2. Complete wizard's step one by one. Select all set of data on each step wizard.
 3. Confirm all checkboxes and click Next.</t>
+    </r>
+  </si>
+  <si>
+    <t>ttc_15</t>
+  </si>
+  <si>
+    <t>ttc_16</t>
+  </si>
+  <si>
+    <t>ttc_17</t>
+  </si>
+  <si>
+    <t>ttc_18</t>
+  </si>
+  <si>
+    <t>ttc_19</t>
   </si>
   <si>
     <t>1. The Add New Job wizard (Basic Info step) is started._x000D_
-2. User complets each wizard's step and selects all set of available data.
-3. The last step is confirmed. The job is created.</t>
-  </si>
-  <si>
-    <t>ttc_14</t>
+2. The Jobs is loaded.
+1. User can cancel wizard at any time on mentiones steps.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +1221,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -356,7 +1279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,12 +1291,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,200 +1614,270 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,11 +78,6 @@
 4. The next step of wizard is loaded (Required Skills).</t>
   </si>
   <si>
-    <t>1. The English language is removed._x000D_
-2. The English language is selected back._x000D_
-3. The next step of wizard is loaded (Required Skills).</t>
-  </si>
-  <si>
     <t>1. All required fields are marked with error messages:_x000D_
 - You need to specify at least one skill_x000D_
 2. Data is entered. All error messages are disappeared._x000D_
@@ -145,12 +140,6 @@
 3. All days after current day are enabled (including current date)</t>
   </si>
   <si>
-    <t>1. Skills are entered.
-2. The Expert level is selected.
-3. The Strong level is selected.
-4. The next step of wizard is loaded (Confirm).</t>
-  </si>
-  <si>
     <t>1. The Add New Job wizard (Basic Info step) is started._x000D_
 2. Data is provide for each step. User is presented with Confirm page
 3. User is able to move back up to the first step. Data is not erased.
@@ -668,58 +657,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Check that removed spoken language can be selected once again on [New Job wizard - Details]_x000D_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prerequisites:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Given user is already logged in. The New Job wizard - Details is already started._x000D_
-_x000D_
-1. Remove English spoken language. _x000D_
-2. Enter English and select English Language back_x000D_
-3. Click Next button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Check that spoken languages can be removed on [New Job wizard - Details]_x000D_</t>
     </r>
     <r>
@@ -917,59 +854,6 @@
 _x000D_
 1. Provide random skills data in field._x000D_
 2. Hit Enter Key. Check that skills is added to the Misk Category.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Check that level of skills can be selected on [New Job wizard - Required Skills] _x000D_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">_x000D_
-Prerequisites: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
-_x000D_
-1. Provide valid 3 skills.
-2. Select Expert for first added skill
-3. Select Strong for second added skill
-4. Click Next button</t>
     </r>
   </si>
   <si>
@@ -1203,6 +1087,122 @@
     <t>1. The Add New Job wizard (Basic Info step) is started._x000D_
 2. The Jobs is loaded.
 1. User can cancel wizard at any time on mentiones steps.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that removed spoken language can be selected once again on [New Job wizard - Details]_x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+_x000D_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prerequisites:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Given user is already logged in. The New Job wizard - Details is already started._x000D_
+_x000D_
+1. Remove English spoken language. _x000D_
+2. Enter English and select English Language back_x000D_</t>
+    </r>
+  </si>
+  <si>
+    <t>1. The English language is removed._x000D_
+2. The English language is selected back._x000D_</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that level of skills can be selected on [New Job wizard - Required Skills] _x000D_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_x000D_
+Prerequisites: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given user is already logged in. The New Job wizard - Required skills is already started._x000D_
+_x000D_
+1. Provide valid 3 skills.
+2. Select Expert for first added skill
+3. Select Strong for second added skill
+4. Click Next button and Back.
+5. Check if lvl of skill is still selected.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Skills are entered.
+2. The Expert level is selected.
+3. The Strong level is selected.
+4. The next step of wizard is loaded (Confirm). The User is returned.
+5. Entered skills have correct lvl. (as selected before)</t>
   </si>
 </sst>
 </file>
@@ -1244,12 +1244,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1279,7 +1285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1298,6 +1304,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1582,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1627,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -1632,21 +1641,21 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -1656,11 +1665,11 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -1670,154 +1679,154 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
+      <c r="A6" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
+    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
+      <c r="A8" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
+      <c r="A9" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
+      <c r="A10" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
+      <c r="A11" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
+      <c r="A12" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
+      <c r="A13" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
+      <c r="A14" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
+      <c r="A15" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>57</v>
+    <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1825,13 +1834,13 @@
     </row>
     <row r="17" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1839,13 +1848,13 @@
     </row>
     <row r="18" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1853,13 +1862,13 @@
     </row>
     <row r="19" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1867,13 +1876,13 @@
     </row>
     <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
